--- a/mtproto/src/main/data/DailyEventsTable.xlsx
+++ b/mtproto/src/main/data/DailyEventsTable.xlsx
@@ -14,15 +14,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
+  <si>
+    <t>MEETINGS</t>
+  </si>
+  <si>
+    <t>EVENTS</t>
+  </si>
   <si>
     <t>NOTHING</t>
   </si>
   <si>
+    <t>Space Pirates</t>
+  </si>
+  <si>
     <t>Uneventful Day</t>
   </si>
   <si>
+    <t>Derilict Probe</t>
+  </si>
+  <si>
     <t>Another day passes by...</t>
+  </si>
+  <si>
+    <t>Abandoned spacecraft</t>
+  </si>
+  <si>
+    <t>Asteroid Field</t>
+  </si>
+  <si>
+    <t>Electromagnetic Disturbance</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>Static Interference</t>
+  </si>
+  <si>
+    <t>Search: System Check (S) 7+
+Avoid: System Check (E) 5+</t>
+  </si>
+  <si>
+    <t>Search: System Check (C) 7+
+Avoid: System Check (E) 5+</t>
+  </si>
+  <si>
+    <t>Search: System Check (E) 7+
+Avoid: System Check (E) 5+</t>
+  </si>
+  <si>
+    <t>Malfunctioning System: Systems Check (E)</t>
+  </si>
+  <si>
+    <t>See Battle! Rules</t>
+  </si>
+  <si>
+    <t>Malfunctioning System: Systems Check (C)</t>
+  </si>
+  <si>
+    <t>There's an incoming probe. It appears to be derilict, but it could be a trap...
+What would you like to do?</t>
+  </si>
+  <si>
+    <t>There's an abandoned spacecraft in the distance.
+What would you like to do?</t>
+  </si>
+  <si>
+    <t>There's an approaching asteriod field. Some of the asteroids might contain some useful resources...
+What would you like to do?</t>
+  </si>
+  <si>
+    <t>There's an incoming probe. It appears to be derilict, but it could be a trap...\n\nWhat would you like to do?</t>
+  </si>
+  <si>
+    <t>Search,Avoid</t>
+  </si>
+  <si>
+    <t>S,E</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Derelict Ship</t>
+  </si>
+  <si>
+    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Resource Collection Oppertunity (E Components)</t>
+  </si>
+  <si>
+    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Resource Collection Oppertunity (C Components)</t>
+  </si>
+  <si>
+    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Surveyor Encounter</t>
   </si>
   <si>
     <t>OTHER</t>
@@ -64,63 +154,6 @@
   <si>
     <t>If it is earlier than Day 50, ignore this event (Uneventful Day).
 Roll a D6 for every crew member equal to or below half health. On a 12+, the crew mutinies and the game is over. Otherwise, everyone gets +1 on the next system check.</t>
-  </si>
-  <si>
-    <t>MEETINGS</t>
-  </si>
-  <si>
-    <t>EVENTS</t>
-  </si>
-  <si>
-    <t>Space Pirates</t>
-  </si>
-  <si>
-    <t>Derilict Probe</t>
-  </si>
-  <si>
-    <t>Derelict Ship</t>
-  </si>
-  <si>
-    <t>Abandoned spacecraft</t>
-  </si>
-  <si>
-    <t>Electromagnetic Disturbance</t>
-  </si>
-  <si>
-    <t>Asteroid Field</t>
-  </si>
-  <si>
-    <t>Static Interference</t>
-  </si>
-  <si>
-    <t>Search: System Check (S) 7+
-Avoid: System Check (E) 5+</t>
-  </si>
-  <si>
-    <t>Search: System Check (C) 7+
-Avoid: System Check (E) 5+</t>
-  </si>
-  <si>
-    <t>Malfunctioning System: Systems Check (E)</t>
-  </si>
-  <si>
-    <t>Search: System Check (E) 7+
-Avoid: System Check (E) 5+</t>
-  </si>
-  <si>
-    <t>See Battle! Rules</t>
-  </si>
-  <si>
-    <t>Malfunctioning System: Systems Check (C)</t>
-  </si>
-  <si>
-    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Resource Collection Oppertunity (E Components)</t>
-  </si>
-  <si>
-    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Resource Collection Oppertunity (C Components)</t>
-  </si>
-  <si>
-    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Surveyor Encounter</t>
   </si>
 </sst>
 </file>
@@ -135,12 +168,12 @@
     </font>
     <font>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font/>
-    <font>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <b/>
       <name val="Arial"/>
@@ -169,30 +202,60 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,53 +309,133 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -315,54 +458,124 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="28.71"/>
     <col customWidth="1" min="2" max="2" width="25.86"/>
-    <col customWidth="1" min="3" max="3" width="31.14"/>
-    <col customWidth="1" min="4" max="4" width="29.14"/>
+    <col customWidth="1" min="3" max="4" width="31.14"/>
     <col customWidth="1" min="6" max="6" width="26.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -396,48 +609,108 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>33</v>
+      <c r="E3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -472,48 +745,108 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
+      <c r="A1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
+      <c r="A2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
+      <c r="A3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/mtproto/src/main/data/DailyEventsTable.xlsx
+++ b/mtproto/src/main/data/DailyEventsTable.xlsx
@@ -14,23 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
+  <si>
+    <t>NOTHING</t>
+  </si>
+  <si>
+    <t>Uneventful Day</t>
+  </si>
+  <si>
+    <t>Another day passes by...</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>MEETINGS</t>
+  </si>
   <si>
     <t>EVENTS</t>
   </si>
   <si>
-    <t>MEETINGS</t>
-  </si>
-  <si>
-    <t>NOTHING</t>
+    <t>Space Pirates</t>
+  </si>
+  <si>
+    <t>Derelict Ship</t>
+  </si>
+  <si>
+    <t>See Battle! Rules</t>
+  </si>
+  <si>
+    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Resource Collection Oppertunity (E Components)</t>
+  </si>
+  <si>
+    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Resource Collection Oppertunity (C Components)</t>
+  </si>
+  <si>
+    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Surveyor Encounter</t>
   </si>
   <si>
     <t>Derilict Probe</t>
   </si>
   <si>
-    <t>Space Pirates</t>
-  </si>
-  <si>
     <t>Abandoned spacecraft</t>
   </si>
   <si>
@@ -40,44 +64,20 @@
     <t>Electromagnetic Disturbance</t>
   </si>
   <si>
-    <t>Derelict Ship</t>
-  </si>
-  <si>
     <t>Static Interference</t>
   </si>
   <si>
     <t>RCO</t>
   </si>
   <si>
-    <t>See Battle! Rules</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
     <t>BATTLE</t>
-  </si>
-  <si>
-    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Resource Collection Oppertunity (E Components)</t>
-  </si>
-  <si>
-    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Resource Collection Oppertunity (C Components)</t>
-  </si>
-  <si>
-    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Surveyor Encounter</t>
   </si>
   <si>
     <t>There's an incoming probe. It appears to be derilict, but it could be a trap...
 What would you like to do?</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>Uneventful Day</t>
-  </si>
-  <si>
-    <t>Another day passes by...</t>
   </si>
   <si>
     <t>There's an abandoned spacecraft in the distance.
@@ -160,6 +160,7 @@
     <font>
       <color rgb="FFFFFFFF"/>
     </font>
+    <font/>
     <font>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -171,7 +172,6 @@
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -198,51 +198,51 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -297,133 +297,113 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>20</v>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>18</v>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>18</v>
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -451,53 +431,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>21</v>
@@ -508,11 +488,11 @@
       <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -544,13 +524,13 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -585,108 +565,108 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>18</v>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>18</v>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +701,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -746,83 +726,83 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>18</v>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>18</v>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
